--- a/ConfigurationFiles/2-Score_weight_PL.xlsx
+++ b/ConfigurationFiles/2-Score_weight_PL.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{81026621-3EE3-4F4E-9639-BC85195DF856}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,22 +36,22 @@
     <t>FA2_[FA-H]-</t>
   </si>
   <si>
-    <t>[LPL(FA1)-H]-</t>
-  </si>
-  <si>
-    <t>[LPL(FA2)-H]-</t>
-  </si>
-  <si>
-    <t>[LPL(FA1)-H2O-H]-</t>
-  </si>
-  <si>
-    <t>[LPL(FA2)-H2O-H]-</t>
+    <t>FA1_[LPL-H]-</t>
+  </si>
+  <si>
+    <t>FA2_[LPL-H]-</t>
+  </si>
+  <si>
+    <t>FA1_[LPL-H2O-H]-</t>
+  </si>
+  <si>
+    <t>FA2_[LPL-H2O-H]-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,19 +396,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -420,7 +419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -431,7 +430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -442,7 +441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -453,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -464,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -475,7 +474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>

--- a/ConfigurationFiles/2-Score_weight_PL.xlsx
+++ b/ConfigurationFiles/2-Score_weight_PL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="12643"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>47.5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>35</v>
+        <v>47.5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -468,10 +468,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -479,10 +479,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
